--- a/Logboek.xlsx
+++ b/Logboek.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Xampp1\htdocs\minecade\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3D3D083A-62D5-4886-8563-AEBC9AD83A9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4C90C845-4E02-49F4-B0DC-3DC5C2D9A9BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2C2507E0-76F0-426D-84E4-775E7C3CB012}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="56">
   <si>
     <t>Fabian</t>
   </si>
@@ -200,6 +200,9 @@
   </si>
   <si>
     <t>Homepage volledig maken</t>
+  </si>
+  <si>
+    <t>check wachtwoord frontend</t>
   </si>
 </sst>
 </file>
@@ -578,7 +581,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -779,6 +782,9 @@
       <c r="D18" t="s">
         <v>46</v>
       </c>
+      <c r="E18" t="s">
+        <v>55</v>
+      </c>
       <c r="F18" t="s">
         <v>48</v>
       </c>
